--- a/ESP32_NOW/data_record/output.xlsx
+++ b/ESP32_NOW/data_record/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +442,4194 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>112933</v>
+        <v>462</v>
       </c>
       <c r="B2" t="n">
-        <v>2.329999923706055</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B3" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B4" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B5" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B6" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B7" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B8" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B12" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B14" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B15" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B16" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B17" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B18" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B19" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B20" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B21" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B22" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B23" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B24" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>13933</v>
+      </c>
+      <c r="B26" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>13934</v>
+      </c>
+      <c r="B27" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>13935</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>13936</v>
+      </c>
+      <c r="B29" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>13937</v>
+      </c>
+      <c r="B30" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>13943</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>13944</v>
+      </c>
+      <c r="B32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>13945</v>
+      </c>
+      <c r="B33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>13946</v>
+      </c>
+      <c r="B34" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>13947</v>
+      </c>
+      <c r="B35" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>13953</v>
+      </c>
+      <c r="B36" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>13954</v>
+      </c>
+      <c r="B37" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>13955</v>
+      </c>
+      <c r="B38" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>13956</v>
+      </c>
+      <c r="B39" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>13957</v>
+      </c>
+      <c r="B40" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>13963</v>
+      </c>
+      <c r="B41" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>13964</v>
+      </c>
+      <c r="B42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>13965</v>
+      </c>
+      <c r="B43" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>13966</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>13967</v>
+      </c>
+      <c r="B45" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>13973</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>13974</v>
+      </c>
+      <c r="B47" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>13975</v>
+      </c>
+      <c r="B48" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>13976</v>
+      </c>
+      <c r="B49" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>13977</v>
+      </c>
+      <c r="B50" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>13983</v>
+      </c>
+      <c r="B51" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>13984</v>
+      </c>
+      <c r="B52" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>13985</v>
+      </c>
+      <c r="B53" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>13986</v>
+      </c>
+      <c r="B54" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>13987</v>
+      </c>
+      <c r="B55" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>13993</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>13994</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>13995</v>
+      </c>
+      <c r="B58" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>13996</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>13997</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>14003</v>
+      </c>
+      <c r="B61" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>14004</v>
+      </c>
+      <c r="B62" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>14005</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>14006</v>
+      </c>
+      <c r="B64" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>14007</v>
+      </c>
+      <c r="B65" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>14013</v>
+      </c>
+      <c r="B66" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>14014</v>
+      </c>
+      <c r="B67" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>14015</v>
+      </c>
+      <c r="B68" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>14016</v>
+      </c>
+      <c r="B69" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>14017</v>
+      </c>
+      <c r="B70" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>14023</v>
+      </c>
+      <c r="B71" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>14024</v>
+      </c>
+      <c r="B72" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>14025</v>
+      </c>
+      <c r="B73" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>14026</v>
+      </c>
+      <c r="B74" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>14027</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>14033</v>
+      </c>
+      <c r="B76" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>14034</v>
+      </c>
+      <c r="B77" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>14035</v>
+      </c>
+      <c r="B78" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>14036</v>
+      </c>
+      <c r="B79" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>14037</v>
+      </c>
+      <c r="B80" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>14043</v>
+      </c>
+      <c r="B81" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>14044</v>
+      </c>
+      <c r="B82" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>14045</v>
+      </c>
+      <c r="B83" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>14046</v>
+      </c>
+      <c r="B84" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>14047</v>
+      </c>
+      <c r="B85" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>14053</v>
+      </c>
+      <c r="B86" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>14054</v>
+      </c>
+      <c r="B87" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>14055</v>
+      </c>
+      <c r="B88" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>14056</v>
+      </c>
+      <c r="B89" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>14057</v>
+      </c>
+      <c r="B90" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>14063</v>
+      </c>
+      <c r="B91" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>14064</v>
+      </c>
+      <c r="B92" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>14065</v>
+      </c>
+      <c r="B93" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>14066</v>
+      </c>
+      <c r="B94" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>14067</v>
+      </c>
+      <c r="B95" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>14073</v>
+      </c>
+      <c r="B96" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>14074</v>
+      </c>
+      <c r="B97" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>14075</v>
+      </c>
+      <c r="B98" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>14076</v>
+      </c>
+      <c r="B99" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>14077</v>
+      </c>
+      <c r="B100" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>14083</v>
+      </c>
+      <c r="B101" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>14084</v>
+      </c>
+      <c r="B102" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>14085</v>
+      </c>
+      <c r="B103" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>14086</v>
+      </c>
+      <c r="B104" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>14087</v>
+      </c>
+      <c r="B105" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>14093</v>
+      </c>
+      <c r="B106" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>14094</v>
+      </c>
+      <c r="B107" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>14095</v>
+      </c>
+      <c r="B108" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>14096</v>
+      </c>
+      <c r="B109" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>14097</v>
+      </c>
+      <c r="B110" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>14103</v>
+      </c>
+      <c r="B111" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>14104</v>
+      </c>
+      <c r="B112" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>14105</v>
+      </c>
+      <c r="B113" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>14106</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>14107</v>
+      </c>
+      <c r="B115" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>14113</v>
+      </c>
+      <c r="B116" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>14114</v>
+      </c>
+      <c r="B117" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>14115</v>
+      </c>
+      <c r="B118" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>14116</v>
+      </c>
+      <c r="B119" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>14117</v>
+      </c>
+      <c r="B120" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>14123</v>
+      </c>
+      <c r="B121" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>14124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>14125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>14126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>14127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>14133</v>
+      </c>
+      <c r="B126" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>14134</v>
+      </c>
+      <c r="B127" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>14135</v>
+      </c>
+      <c r="B128" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>14136</v>
+      </c>
+      <c r="B129" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>14137</v>
+      </c>
+      <c r="B130" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>14143</v>
+      </c>
+      <c r="B131" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>14144</v>
+      </c>
+      <c r="B132" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>14145</v>
+      </c>
+      <c r="B133" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>14146</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>14147</v>
+      </c>
+      <c r="B135" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>14153</v>
+      </c>
+      <c r="B136" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>14154</v>
+      </c>
+      <c r="B137" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>14155</v>
+      </c>
+      <c r="B138" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>14156</v>
+      </c>
+      <c r="B139" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>14157</v>
+      </c>
+      <c r="B140" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>14163</v>
+      </c>
+      <c r="B141" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>14164</v>
+      </c>
+      <c r="B142" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>14165</v>
+      </c>
+      <c r="B143" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>14166</v>
+      </c>
+      <c r="B144" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>14167</v>
+      </c>
+      <c r="B145" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>14173</v>
+      </c>
+      <c r="B146" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>14174</v>
+      </c>
+      <c r="B147" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>14175</v>
+      </c>
+      <c r="B148" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>14176</v>
+      </c>
+      <c r="B149" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>14177</v>
+      </c>
+      <c r="B150" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>14183</v>
+      </c>
+      <c r="B151" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>14184</v>
+      </c>
+      <c r="B152" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>14185</v>
+      </c>
+      <c r="B153" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>14186</v>
+      </c>
+      <c r="B154" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>14187</v>
+      </c>
+      <c r="B155" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>14193</v>
+      </c>
+      <c r="B156" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>14194</v>
+      </c>
+      <c r="B157" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>14195</v>
+      </c>
+      <c r="B158" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>14196</v>
+      </c>
+      <c r="B159" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>14197</v>
+      </c>
+      <c r="B160" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>14203</v>
+      </c>
+      <c r="B161" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>14204</v>
+      </c>
+      <c r="B162" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>14205</v>
+      </c>
+      <c r="B163" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>14206</v>
+      </c>
+      <c r="B164" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>14207</v>
+      </c>
+      <c r="B165" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>14213</v>
+      </c>
+      <c r="B166" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>14214</v>
+      </c>
+      <c r="B167" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>14215</v>
+      </c>
+      <c r="B168" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>14216</v>
+      </c>
+      <c r="B169" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>14217</v>
+      </c>
+      <c r="B170" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>14223</v>
+      </c>
+      <c r="B171" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>14224</v>
+      </c>
+      <c r="B172" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>14225</v>
+      </c>
+      <c r="B173" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>14226</v>
+      </c>
+      <c r="B174" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>14227</v>
+      </c>
+      <c r="B175" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>14233</v>
+      </c>
+      <c r="B176" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>14234</v>
+      </c>
+      <c r="B177" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>14235</v>
+      </c>
+      <c r="B178" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>14236</v>
+      </c>
+      <c r="B179" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>14237</v>
+      </c>
+      <c r="B180" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>14243</v>
+      </c>
+      <c r="B181" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>14244</v>
+      </c>
+      <c r="B182" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>14245</v>
+      </c>
+      <c r="B183" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>14246</v>
+      </c>
+      <c r="B184" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>14247</v>
+      </c>
+      <c r="B185" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>14253</v>
+      </c>
+      <c r="B186" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>14254</v>
+      </c>
+      <c r="B187" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>14255</v>
+      </c>
+      <c r="B188" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>14256</v>
+      </c>
+      <c r="B189" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>14257</v>
+      </c>
+      <c r="B190" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>14263</v>
+      </c>
+      <c r="B191" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>14264</v>
+      </c>
+      <c r="B192" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>14265</v>
+      </c>
+      <c r="B193" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>14266</v>
+      </c>
+      <c r="B194" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>14267</v>
+      </c>
+      <c r="B195" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>14273</v>
+      </c>
+      <c r="B196" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>14274</v>
+      </c>
+      <c r="B197" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>14275</v>
+      </c>
+      <c r="B198" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="B199" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>14277</v>
+      </c>
+      <c r="B200" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>14283</v>
+      </c>
+      <c r="B201" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>14284</v>
+      </c>
+      <c r="B202" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>14285</v>
+      </c>
+      <c r="B203" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>14286</v>
+      </c>
+      <c r="B204" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>14287</v>
+      </c>
+      <c r="B205" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>14293</v>
+      </c>
+      <c r="B206" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>14294</v>
+      </c>
+      <c r="B207" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>14295</v>
+      </c>
+      <c r="B208" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>14296</v>
+      </c>
+      <c r="B209" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>14297</v>
+      </c>
+      <c r="B210" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>14303</v>
+      </c>
+      <c r="B211" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>14304</v>
+      </c>
+      <c r="B212" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>14305</v>
+      </c>
+      <c r="B213" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>14306</v>
+      </c>
+      <c r="B214" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>14307</v>
+      </c>
+      <c r="B215" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>14313</v>
+      </c>
+      <c r="B216" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>14314</v>
+      </c>
+      <c r="B217" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>14315</v>
+      </c>
+      <c r="B218" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>14316</v>
+      </c>
+      <c r="B219" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>14317</v>
+      </c>
+      <c r="B220" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>14323</v>
+      </c>
+      <c r="B221" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>14324</v>
+      </c>
+      <c r="B222" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>14325</v>
+      </c>
+      <c r="B223" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>14326</v>
+      </c>
+      <c r="B224" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>14327</v>
+      </c>
+      <c r="B225" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>14333</v>
+      </c>
+      <c r="B226" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>14334</v>
+      </c>
+      <c r="B227" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>14335</v>
+      </c>
+      <c r="B228" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>14336</v>
+      </c>
+      <c r="B229" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>14337</v>
+      </c>
+      <c r="B230" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>14343</v>
+      </c>
+      <c r="B231" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>14344</v>
+      </c>
+      <c r="B232" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>14345</v>
+      </c>
+      <c r="B233" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>14346</v>
+      </c>
+      <c r="B234" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>14347</v>
+      </c>
+      <c r="B235" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>14353</v>
+      </c>
+      <c r="B236" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>14354</v>
+      </c>
+      <c r="B237" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>14355</v>
+      </c>
+      <c r="B238" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>14356</v>
+      </c>
+      <c r="B239" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>14357</v>
+      </c>
+      <c r="B240" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>14363</v>
+      </c>
+      <c r="B241" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>14364</v>
+      </c>
+      <c r="B242" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>14365</v>
+      </c>
+      <c r="B243" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>14366</v>
+      </c>
+      <c r="B244" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B245" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>14373</v>
+      </c>
+      <c r="B246" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>14374</v>
+      </c>
+      <c r="B247" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>14375</v>
+      </c>
+      <c r="B248" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>14376</v>
+      </c>
+      <c r="B249" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>14377</v>
+      </c>
+      <c r="B250" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>14383</v>
+      </c>
+      <c r="B251" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>14384</v>
+      </c>
+      <c r="B252" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>14385</v>
+      </c>
+      <c r="B253" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>14386</v>
+      </c>
+      <c r="B254" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>14387</v>
+      </c>
+      <c r="B255" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>14393</v>
+      </c>
+      <c r="B256" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>14394</v>
+      </c>
+      <c r="B257" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>14395</v>
+      </c>
+      <c r="B258" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>14396</v>
+      </c>
+      <c r="B259" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>14397</v>
+      </c>
+      <c r="B260" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>14403</v>
+      </c>
+      <c r="B261" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>14404</v>
+      </c>
+      <c r="B262" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>14405</v>
+      </c>
+      <c r="B263" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>14406</v>
+      </c>
+      <c r="B264" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>14407</v>
+      </c>
+      <c r="B265" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B266" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>14414</v>
+      </c>
+      <c r="B267" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>14415</v>
+      </c>
+      <c r="B268" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>14416</v>
+      </c>
+      <c r="B269" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>14417</v>
+      </c>
+      <c r="B270" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>14423</v>
+      </c>
+      <c r="B271" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>14424</v>
+      </c>
+      <c r="B272" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>14425</v>
+      </c>
+      <c r="B273" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>14426</v>
+      </c>
+      <c r="B274" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>14427</v>
+      </c>
+      <c r="B275" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>14433</v>
+      </c>
+      <c r="B276" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>14434</v>
+      </c>
+      <c r="B277" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>14435</v>
+      </c>
+      <c r="B278" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>14436</v>
+      </c>
+      <c r="B279" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>14437</v>
+      </c>
+      <c r="B280" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>14443</v>
+      </c>
+      <c r="B281" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>14444</v>
+      </c>
+      <c r="B282" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>14445</v>
+      </c>
+      <c r="B283" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>14446</v>
+      </c>
+      <c r="B284" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>14447</v>
+      </c>
+      <c r="B285" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>14453</v>
+      </c>
+      <c r="B286" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>14454</v>
+      </c>
+      <c r="B287" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>14455</v>
+      </c>
+      <c r="B288" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>14456</v>
+      </c>
+      <c r="B289" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>14457</v>
+      </c>
+      <c r="B290" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>14463</v>
+      </c>
+      <c r="B291" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>14464</v>
+      </c>
+      <c r="B292" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>14465</v>
+      </c>
+      <c r="B293" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>14466</v>
+      </c>
+      <c r="B294" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>14467</v>
+      </c>
+      <c r="B295" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>14473</v>
+      </c>
+      <c r="B296" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>14474</v>
+      </c>
+      <c r="B297" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>14475</v>
+      </c>
+      <c r="B298" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>14476</v>
+      </c>
+      <c r="B299" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>14477</v>
+      </c>
+      <c r="B300" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>15983</v>
+      </c>
+      <c r="B301" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>15984</v>
+      </c>
+      <c r="B302" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>15985</v>
+      </c>
+      <c r="B303" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>15986</v>
+      </c>
+      <c r="B304" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>15987</v>
+      </c>
+      <c r="B305" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>15993</v>
+      </c>
+      <c r="B306" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>15994</v>
+      </c>
+      <c r="B307" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>15995</v>
+      </c>
+      <c r="B308" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>15996</v>
+      </c>
+      <c r="B309" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>15997</v>
+      </c>
+      <c r="B310" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>16003</v>
+      </c>
+      <c r="B311" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>16004</v>
+      </c>
+      <c r="B312" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>16005</v>
+      </c>
+      <c r="B313" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>16006</v>
+      </c>
+      <c r="B314" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>16007</v>
+      </c>
+      <c r="B315" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>16013</v>
+      </c>
+      <c r="B316" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>16014</v>
+      </c>
+      <c r="B317" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>16015</v>
+      </c>
+      <c r="B318" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>16016</v>
+      </c>
+      <c r="B319" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>16017</v>
+      </c>
+      <c r="B320" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>16023</v>
+      </c>
+      <c r="B321" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>16024</v>
+      </c>
+      <c r="B322" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>16025</v>
+      </c>
+      <c r="B323" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>16026</v>
+      </c>
+      <c r="B324" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>16027</v>
+      </c>
+      <c r="B325" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>16033</v>
+      </c>
+      <c r="B326" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>16034</v>
+      </c>
+      <c r="B327" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>16035</v>
+      </c>
+      <c r="B328" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>16036</v>
+      </c>
+      <c r="B329" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>16037</v>
+      </c>
+      <c r="B330" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>16043</v>
+      </c>
+      <c r="B331" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>16044</v>
+      </c>
+      <c r="B332" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>16045</v>
+      </c>
+      <c r="B333" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>16046</v>
+      </c>
+      <c r="B334" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>16047</v>
+      </c>
+      <c r="B335" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>16053</v>
+      </c>
+      <c r="B336" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>16054</v>
+      </c>
+      <c r="B337" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>16055</v>
+      </c>
+      <c r="B338" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>16056</v>
+      </c>
+      <c r="B339" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>16057</v>
+      </c>
+      <c r="B340" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>16063</v>
+      </c>
+      <c r="B341" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>16064</v>
+      </c>
+      <c r="B342" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>16065</v>
+      </c>
+      <c r="B343" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>16066</v>
+      </c>
+      <c r="B344" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>16067</v>
+      </c>
+      <c r="B345" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>16073</v>
+      </c>
+      <c r="B346" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>16074</v>
+      </c>
+      <c r="B347" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>16075</v>
+      </c>
+      <c r="B348" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>16076</v>
+      </c>
+      <c r="B349" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>16077</v>
+      </c>
+      <c r="B350" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>16083</v>
+      </c>
+      <c r="B351" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>16084</v>
+      </c>
+      <c r="B352" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>16085</v>
+      </c>
+      <c r="B353" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>16086</v>
+      </c>
+      <c r="B354" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>16087</v>
+      </c>
+      <c r="B355" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>16093</v>
+      </c>
+      <c r="B356" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>16094</v>
+      </c>
+      <c r="B357" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>16095</v>
+      </c>
+      <c r="B358" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>16096</v>
+      </c>
+      <c r="B359" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>16097</v>
+      </c>
+      <c r="B360" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>16103</v>
+      </c>
+      <c r="B361" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>16104</v>
+      </c>
+      <c r="B362" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>16105</v>
+      </c>
+      <c r="B363" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>16106</v>
+      </c>
+      <c r="B364" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>16107</v>
+      </c>
+      <c r="B365" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>16113</v>
+      </c>
+      <c r="B366" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>16114</v>
+      </c>
+      <c r="B367" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>16115</v>
+      </c>
+      <c r="B368" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>16116</v>
+      </c>
+      <c r="B369" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>16117</v>
+      </c>
+      <c r="B370" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>16123</v>
+      </c>
+      <c r="B371" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>16124</v>
+      </c>
+      <c r="B372" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>16125</v>
+      </c>
+      <c r="B373" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>16126</v>
+      </c>
+      <c r="B374" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>16127</v>
+      </c>
+      <c r="B375" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>16133</v>
+      </c>
+      <c r="B376" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>16134</v>
+      </c>
+      <c r="B377" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>16135</v>
+      </c>
+      <c r="B378" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>16136</v>
+      </c>
+      <c r="B379" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>16137</v>
+      </c>
+      <c r="B380" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>16143</v>
+      </c>
+      <c r="B381" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>16144</v>
+      </c>
+      <c r="B382" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>16145</v>
+      </c>
+      <c r="B383" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>16146</v>
+      </c>
+      <c r="B384" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>16147</v>
+      </c>
+      <c r="B385" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>16153</v>
+      </c>
+      <c r="B386" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>16154</v>
+      </c>
+      <c r="B387" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>16155</v>
+      </c>
+      <c r="B388" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>16156</v>
+      </c>
+      <c r="B389" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>16157</v>
+      </c>
+      <c r="B390" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>16163</v>
+      </c>
+      <c r="B391" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>16164</v>
+      </c>
+      <c r="B392" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>16165</v>
+      </c>
+      <c r="B393" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>16166</v>
+      </c>
+      <c r="B394" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>16167</v>
+      </c>
+      <c r="B395" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>16173</v>
+      </c>
+      <c r="B396" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>16174</v>
+      </c>
+      <c r="B397" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>16175</v>
+      </c>
+      <c r="B398" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>16176</v>
+      </c>
+      <c r="B399" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>16177</v>
+      </c>
+      <c r="B400" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>16183</v>
+      </c>
+      <c r="B401" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>16184</v>
+      </c>
+      <c r="B402" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>16185</v>
+      </c>
+      <c r="B403" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>16186</v>
+      </c>
+      <c r="B404" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>16187</v>
+      </c>
+      <c r="B405" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>16193</v>
+      </c>
+      <c r="B406" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>16194</v>
+      </c>
+      <c r="B407" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>16195</v>
+      </c>
+      <c r="B408" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>16196</v>
+      </c>
+      <c r="B409" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>16197</v>
+      </c>
+      <c r="B410" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>16203</v>
+      </c>
+      <c r="B411" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>16204</v>
+      </c>
+      <c r="B412" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>16205</v>
+      </c>
+      <c r="B413" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>16206</v>
+      </c>
+      <c r="B414" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>16207</v>
+      </c>
+      <c r="B415" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>16213</v>
+      </c>
+      <c r="B416" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>16214</v>
+      </c>
+      <c r="B417" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>16215</v>
+      </c>
+      <c r="B418" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>16216</v>
+      </c>
+      <c r="B419" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>16217</v>
+      </c>
+      <c r="B420" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>16223</v>
+      </c>
+      <c r="B421" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>16224</v>
+      </c>
+      <c r="B422" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>16225</v>
+      </c>
+      <c r="B423" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>16226</v>
+      </c>
+      <c r="B424" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>16227</v>
+      </c>
+      <c r="B425" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>16233</v>
+      </c>
+      <c r="B426" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>16234</v>
+      </c>
+      <c r="B427" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>16235</v>
+      </c>
+      <c r="B428" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>16236</v>
+      </c>
+      <c r="B429" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>16237</v>
+      </c>
+      <c r="B430" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>16243</v>
+      </c>
+      <c r="B431" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>16244</v>
+      </c>
+      <c r="B432" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>16245</v>
+      </c>
+      <c r="B433" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>16246</v>
+      </c>
+      <c r="B434" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>16247</v>
+      </c>
+      <c r="B435" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>16253</v>
+      </c>
+      <c r="B436" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>16254</v>
+      </c>
+      <c r="B437" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>16255</v>
+      </c>
+      <c r="B438" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>16256</v>
+      </c>
+      <c r="B439" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>16257</v>
+      </c>
+      <c r="B440" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>16263</v>
+      </c>
+      <c r="B441" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>16264</v>
+      </c>
+      <c r="B442" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>16265</v>
+      </c>
+      <c r="B443" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>16266</v>
+      </c>
+      <c r="B444" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>16267</v>
+      </c>
+      <c r="B445" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>16273</v>
+      </c>
+      <c r="B446" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>16274</v>
+      </c>
+      <c r="B447" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>16275</v>
+      </c>
+      <c r="B448" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>16276</v>
+      </c>
+      <c r="B449" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>16277</v>
+      </c>
+      <c r="B450" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>16283</v>
+      </c>
+      <c r="B451" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>16284</v>
+      </c>
+      <c r="B452" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>16285</v>
+      </c>
+      <c r="B453" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>16286</v>
+      </c>
+      <c r="B454" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>16287</v>
+      </c>
+      <c r="B455" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>16293</v>
+      </c>
+      <c r="B456" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>16294</v>
+      </c>
+      <c r="B457" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>16295</v>
+      </c>
+      <c r="B458" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>16296</v>
+      </c>
+      <c r="B459" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>16297</v>
+      </c>
+      <c r="B460" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>16303</v>
+      </c>
+      <c r="B461" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>16304</v>
+      </c>
+      <c r="B462" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>16305</v>
+      </c>
+      <c r="B463" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>16306</v>
+      </c>
+      <c r="B464" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>16307</v>
+      </c>
+      <c r="B465" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>16313</v>
+      </c>
+      <c r="B466" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>16314</v>
+      </c>
+      <c r="B467" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>16315</v>
+      </c>
+      <c r="B468" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>16316</v>
+      </c>
+      <c r="B469" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>16317</v>
+      </c>
+      <c r="B470" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>16323</v>
+      </c>
+      <c r="B471" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>16324</v>
+      </c>
+      <c r="B472" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>16325</v>
+      </c>
+      <c r="B473" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>16326</v>
+      </c>
+      <c r="B474" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>16327</v>
+      </c>
+      <c r="B475" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>16333</v>
+      </c>
+      <c r="B476" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>16334</v>
+      </c>
+      <c r="B477" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>16335</v>
+      </c>
+      <c r="B478" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>16336</v>
+      </c>
+      <c r="B479" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>16337</v>
+      </c>
+      <c r="B480" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>16343</v>
+      </c>
+      <c r="B481" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>16344</v>
+      </c>
+      <c r="B482" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>16345</v>
+      </c>
+      <c r="B483" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>16346</v>
+      </c>
+      <c r="B484" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>16347</v>
+      </c>
+      <c r="B485" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>16353</v>
+      </c>
+      <c r="B486" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>16354</v>
+      </c>
+      <c r="B487" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>16355</v>
+      </c>
+      <c r="B488" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>16356</v>
+      </c>
+      <c r="B489" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>16357</v>
+      </c>
+      <c r="B490" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>16363</v>
+      </c>
+      <c r="B491" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>16364</v>
+      </c>
+      <c r="B492" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>16365</v>
+      </c>
+      <c r="B493" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>16366</v>
+      </c>
+      <c r="B494" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>16367</v>
+      </c>
+      <c r="B495" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>16373</v>
+      </c>
+      <c r="B496" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>16374</v>
+      </c>
+      <c r="B497" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>16375</v>
+      </c>
+      <c r="B498" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>16376</v>
+      </c>
+      <c r="B499" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>16377</v>
+      </c>
+      <c r="B500" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>16383</v>
+      </c>
+      <c r="B501" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B502" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>16385</v>
+      </c>
+      <c r="B503" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>16386</v>
+      </c>
+      <c r="B504" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>16387</v>
+      </c>
+      <c r="B505" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>16393</v>
+      </c>
+      <c r="B506" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>16394</v>
+      </c>
+      <c r="B507" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>16395</v>
+      </c>
+      <c r="B508" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>16396</v>
+      </c>
+      <c r="B509" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>16397</v>
+      </c>
+      <c r="B510" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>16403</v>
+      </c>
+      <c r="B511" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>16404</v>
+      </c>
+      <c r="B512" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>16405</v>
+      </c>
+      <c r="B513" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>16406</v>
+      </c>
+      <c r="B514" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>16407</v>
+      </c>
+      <c r="B515" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>16413</v>
+      </c>
+      <c r="B516" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>16414</v>
+      </c>
+      <c r="B517" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>16415</v>
+      </c>
+      <c r="B518" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>16416</v>
+      </c>
+      <c r="B519" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>16417</v>
+      </c>
+      <c r="B520" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>16423</v>
+      </c>
+      <c r="B521" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>16424</v>
+      </c>
+      <c r="B522" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>16425</v>
+      </c>
+      <c r="B523" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>16426</v>
+      </c>
+      <c r="B524" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>16427</v>
+      </c>
+      <c r="B525" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
